--- a/data/pca/factorExposure/factorExposure_2014-08-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-08-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.008068577265714636</v>
+        <v>0.01898698301732468</v>
       </c>
       <c r="C2">
-        <v>0.1223997272997908</v>
+        <v>-0.06863979613850939</v>
       </c>
       <c r="D2">
-        <v>-0.02719137385829394</v>
+        <v>-0.03129882429592732</v>
       </c>
       <c r="E2">
-        <v>-0.2141886396502043</v>
+        <v>0.01087385315580683</v>
       </c>
       <c r="F2">
-        <v>-0.03854636655812598</v>
+        <v>0.05252461115627388</v>
       </c>
       <c r="G2">
-        <v>0.08321328127711082</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.1611695268708804</v>
+      </c>
+      <c r="H2">
+        <v>-0.01717868831850917</v>
+      </c>
+      <c r="I2">
+        <v>-0.02642961616199988</v>
+      </c>
+      <c r="J2">
+        <v>0.119401753462814</v>
+      </c>
+      <c r="K2">
+        <v>0.03552092605462998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.01834725248201479</v>
+        <v>0.01887749600236367</v>
       </c>
       <c r="C4">
-        <v>0.1675484667273654</v>
+        <v>-0.1427168256228164</v>
       </c>
       <c r="D4">
-        <v>-0.03842058834570117</v>
+        <v>-0.06538700348859598</v>
       </c>
       <c r="E4">
-        <v>-0.04795298360360738</v>
+        <v>0.01032092983510356</v>
       </c>
       <c r="F4">
-        <v>0.06923293657768767</v>
+        <v>-0.03633671037313919</v>
       </c>
       <c r="G4">
-        <v>-0.02375137607647947</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.06819491899073199</v>
+      </c>
+      <c r="H4">
+        <v>0.04078159491453261</v>
+      </c>
+      <c r="I4">
+        <v>-0.0806403286719726</v>
+      </c>
+      <c r="J4">
+        <v>0.05715072360683581</v>
+      </c>
+      <c r="K4">
+        <v>-0.01027896734255644</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.02392058294533757</v>
+        <v>0.03948298307354981</v>
       </c>
       <c r="C6">
-        <v>0.07542191543033794</v>
+        <v>-0.08576551833916944</v>
       </c>
       <c r="D6">
-        <v>-0.05656234287136338</v>
+        <v>-0.02812165457638356</v>
       </c>
       <c r="E6">
-        <v>-0.05639500298718029</v>
+        <v>0.01426293540447115</v>
       </c>
       <c r="F6">
-        <v>0.001504694526219477</v>
+        <v>0.04515332579643418</v>
       </c>
       <c r="G6">
-        <v>-0.05029604531635356</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.02628123413773092</v>
+      </c>
+      <c r="H6">
+        <v>0.06344370858449107</v>
+      </c>
+      <c r="I6">
+        <v>-0.03609302428392878</v>
+      </c>
+      <c r="J6">
+        <v>-0.04757558380323171</v>
+      </c>
+      <c r="K6">
+        <v>0.03622958325016038</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.00606925732082246</v>
+        <v>0.01898514827930375</v>
       </c>
       <c r="C7">
-        <v>0.06897401590129935</v>
+        <v>-0.06970392765891339</v>
       </c>
       <c r="D7">
-        <v>-0.03743300435757166</v>
+        <v>-0.031958025138249</v>
       </c>
       <c r="E7">
-        <v>-0.01290151380826976</v>
+        <v>0.006044674846065382</v>
       </c>
       <c r="F7">
-        <v>0.02504917694058144</v>
+        <v>-0.01634457739055259</v>
       </c>
       <c r="G7">
-        <v>-0.04151183355879147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.0009055661642771739</v>
+      </c>
+      <c r="H7">
+        <v>0.04592277725855543</v>
+      </c>
+      <c r="I7">
+        <v>-0.07540858137505188</v>
+      </c>
+      <c r="J7">
+        <v>0.06755120952656488</v>
+      </c>
+      <c r="K7">
+        <v>0.0223539339290293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.01076416656483788</v>
+        <v>0.001485847271553967</v>
       </c>
       <c r="C8">
-        <v>0.07316405493129319</v>
+        <v>-0.06081396443374867</v>
       </c>
       <c r="D8">
-        <v>-0.04479447010330416</v>
+        <v>-0.04860831707577555</v>
       </c>
       <c r="E8">
-        <v>-0.05620358912060176</v>
+        <v>0.05205360187050267</v>
       </c>
       <c r="F8">
-        <v>0.01191397509547893</v>
+        <v>0.01858282680135718</v>
       </c>
       <c r="G8">
-        <v>0.01250435558562349</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.0498046365763274</v>
+      </c>
+      <c r="H8">
+        <v>-0.003858644008835281</v>
+      </c>
+      <c r="I8">
+        <v>-0.05678408244264276</v>
+      </c>
+      <c r="J8">
+        <v>-0.004300801932699295</v>
+      </c>
+      <c r="K8">
+        <v>-0.009765190153896007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.01154079504727589</v>
+        <v>0.01351402543111832</v>
       </c>
       <c r="C9">
-        <v>0.1195918338138913</v>
+        <v>-0.1002758422475572</v>
       </c>
       <c r="D9">
-        <v>-0.05136700631140496</v>
+        <v>-0.04047586845571077</v>
       </c>
       <c r="E9">
-        <v>-0.01517484683472283</v>
+        <v>-0.01274322154237704</v>
       </c>
       <c r="F9">
-        <v>0.00805802893841312</v>
+        <v>-0.01673132974559648</v>
       </c>
       <c r="G9">
-        <v>-0.03588238495817832</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.04553695952667955</v>
+      </c>
+      <c r="H9">
+        <v>0.02640817573857848</v>
+      </c>
+      <c r="I9">
+        <v>-0.08626489826437377</v>
+      </c>
+      <c r="J9">
+        <v>0.06762098134934647</v>
+      </c>
+      <c r="K9">
+        <v>0.01521129566167082</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.2642162471532629</v>
+        <v>0.2474019632179917</v>
       </c>
       <c r="C10">
-        <v>-0.08115799075855397</v>
+        <v>0.09761707308845236</v>
       </c>
       <c r="D10">
-        <v>0.02525183094014272</v>
+        <v>0.002687185284687226</v>
       </c>
       <c r="E10">
-        <v>0.04285268511266442</v>
+        <v>0.05377627480107714</v>
       </c>
       <c r="F10">
-        <v>0.01163815840355214</v>
+        <v>0.02900997019462736</v>
       </c>
       <c r="G10">
-        <v>0.01040894341255589</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02127783373942449</v>
+      </c>
+      <c r="H10">
+        <v>0.02801673462036298</v>
+      </c>
+      <c r="I10">
+        <v>-0.03075671246797337</v>
+      </c>
+      <c r="J10">
+        <v>0.001129658687745533</v>
+      </c>
+      <c r="K10">
+        <v>-0.1561428130199025</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.006340322058579716</v>
+        <v>0.01731196768318062</v>
       </c>
       <c r="C11">
-        <v>0.06775512421375608</v>
+        <v>-0.07830057935386918</v>
       </c>
       <c r="D11">
-        <v>-0.03153852099506541</v>
+        <v>-0.03778185006722364</v>
       </c>
       <c r="E11">
-        <v>0.02152102076184882</v>
+        <v>-0.009196929008050719</v>
       </c>
       <c r="F11">
-        <v>0.008082849745746332</v>
+        <v>-0.01025059124315131</v>
       </c>
       <c r="G11">
-        <v>-0.04651715911986892</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.005481146127866524</v>
+      </c>
+      <c r="H11">
+        <v>0.0170321592515846</v>
+      </c>
+      <c r="I11">
+        <v>-0.02904730104983066</v>
+      </c>
+      <c r="J11">
+        <v>0.01955029988684678</v>
+      </c>
+      <c r="K11">
+        <v>0.02779773216433712</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.004583770292142601</v>
+        <v>0.01698400065224541</v>
       </c>
       <c r="C12">
-        <v>0.04368127414640656</v>
+        <v>-0.05205890530660204</v>
       </c>
       <c r="D12">
-        <v>-0.03717635285189426</v>
+        <v>-0.02602833685751435</v>
       </c>
       <c r="E12">
-        <v>0.007173821826931581</v>
+        <v>-0.01262218319482688</v>
       </c>
       <c r="F12">
-        <v>-0.01904370952919613</v>
+        <v>0.01373472875665243</v>
       </c>
       <c r="G12">
-        <v>-0.05306015796412895</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.002471503507574633</v>
+      </c>
+      <c r="H12">
+        <v>0.03124365048923866</v>
+      </c>
+      <c r="I12">
+        <v>-0.02811729424375855</v>
+      </c>
+      <c r="J12">
+        <v>0.008935876969443188</v>
+      </c>
+      <c r="K12">
+        <v>0.01256967885923918</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.01096090017677529</v>
+        <v>0.004387206605379271</v>
       </c>
       <c r="C13">
-        <v>0.1223330378307726</v>
+        <v>-0.1104734159686429</v>
       </c>
       <c r="D13">
-        <v>-0.08431028348908061</v>
+        <v>-0.04182310915271104</v>
       </c>
       <c r="E13">
-        <v>-0.07048126791956996</v>
+        <v>0.0117876922383984</v>
       </c>
       <c r="F13">
-        <v>-0.06611556822585063</v>
+        <v>0.1169194814811349</v>
       </c>
       <c r="G13">
-        <v>-0.1259032145543884</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.117665829820367</v>
+      </c>
+      <c r="H13">
+        <v>0.1286148779314284</v>
+      </c>
+      <c r="I13">
+        <v>-0.02648498783165856</v>
+      </c>
+      <c r="J13">
+        <v>0.2084632615313169</v>
+      </c>
+      <c r="K13">
+        <v>-0.1357160044861979</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.01096717445282109</v>
+        <v>0.02078322533586065</v>
       </c>
       <c r="C14">
-        <v>0.07582017625054364</v>
+        <v>-0.07302581934347831</v>
       </c>
       <c r="D14">
-        <v>-0.0444069542059078</v>
+        <v>-0.04802883038666498</v>
       </c>
       <c r="E14">
-        <v>-0.03634783692355739</v>
+        <v>0.0003021068462539759</v>
       </c>
       <c r="F14">
-        <v>-0.03318755272432018</v>
+        <v>0.04504020469012532</v>
       </c>
       <c r="G14">
-        <v>-0.07988594170457637</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.004565115979356419</v>
+      </c>
+      <c r="H14">
+        <v>0.1279519095626195</v>
+      </c>
+      <c r="I14">
+        <v>-0.1485526427339308</v>
+      </c>
+      <c r="J14">
+        <v>0.08565727708008103</v>
+      </c>
+      <c r="K14">
+        <v>0.01534643166744529</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.009250725228445455</v>
+        <v>0.004301384024730236</v>
       </c>
       <c r="C15">
-        <v>0.07098219596466308</v>
+        <v>-0.06984337600231942</v>
       </c>
       <c r="D15">
-        <v>-0.03171284342132386</v>
+        <v>-0.03029985855703009</v>
       </c>
       <c r="E15">
-        <v>-0.04338698551542221</v>
+        <v>0.01840555201349412</v>
       </c>
       <c r="F15">
-        <v>0.02189688485159548</v>
+        <v>-0.008796172914982914</v>
       </c>
       <c r="G15">
-        <v>-0.01943579502877716</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>-0.02947821658776221</v>
+      </c>
+      <c r="H15">
+        <v>0.03508891040454886</v>
+      </c>
+      <c r="I15">
+        <v>-0.06660375552183939</v>
+      </c>
+      <c r="J15">
+        <v>0.02519860588867573</v>
+      </c>
+      <c r="K15">
+        <v>0.02660454976588925</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.008601136786217191</v>
+        <v>0.0165354637187392</v>
       </c>
       <c r="C16">
-        <v>0.05495922235563801</v>
+        <v>-0.06049424312912604</v>
       </c>
       <c r="D16">
-        <v>-0.02800494198738298</v>
+        <v>-0.02693613004270055</v>
       </c>
       <c r="E16">
-        <v>0.01513619056787605</v>
+        <v>-0.01312818239279828</v>
       </c>
       <c r="F16">
-        <v>-0.005584976801197426</v>
+        <v>-0.006759452912611463</v>
       </c>
       <c r="G16">
-        <v>-0.02861623693478419</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.0007858101790529726</v>
+      </c>
+      <c r="H16">
+        <v>0.01332380406256971</v>
+      </c>
+      <c r="I16">
+        <v>-0.02174352486987614</v>
+      </c>
+      <c r="J16">
+        <v>0.01088991154813253</v>
+      </c>
+      <c r="K16">
+        <v>0.01897444164680276</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.01164783058900382</v>
+        <v>0.01572714404575986</v>
       </c>
       <c r="C20">
-        <v>0.09231066385778734</v>
+        <v>-0.08381548101251621</v>
       </c>
       <c r="D20">
-        <v>-0.04283015437646381</v>
+        <v>-0.02679023104395847</v>
       </c>
       <c r="E20">
-        <v>0.02594422128175851</v>
+        <v>0.01175896475500003</v>
       </c>
       <c r="F20">
-        <v>-0.003481853038883174</v>
+        <v>-0.02100787597580566</v>
       </c>
       <c r="G20">
-        <v>-0.09490445047908846</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.009074107783960972</v>
+      </c>
+      <c r="H20">
+        <v>0.05210759062911289</v>
+      </c>
+      <c r="I20">
+        <v>-0.0656912439052847</v>
+      </c>
+      <c r="J20">
+        <v>0.02212687643733742</v>
+      </c>
+      <c r="K20">
+        <v>0.01294888877652379</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.002294779107204063</v>
+        <v>0.01391589683440468</v>
       </c>
       <c r="C21">
-        <v>0.09044117214496859</v>
+        <v>-0.06963409217263056</v>
       </c>
       <c r="D21">
-        <v>0.01080367717605913</v>
+        <v>-0.01903344129073644</v>
       </c>
       <c r="E21">
-        <v>-0.04324613299042884</v>
+        <v>0.008954297740958803</v>
       </c>
       <c r="F21">
-        <v>-0.07092774186444394</v>
+        <v>0.0949826451207636</v>
       </c>
       <c r="G21">
-        <v>-0.02763809688565925</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.01963328271089191</v>
+      </c>
+      <c r="H21">
+        <v>0.04541564245880864</v>
+      </c>
+      <c r="I21">
+        <v>-0.1024168702298617</v>
+      </c>
+      <c r="J21">
+        <v>0.0915989006545148</v>
+      </c>
+      <c r="K21">
+        <v>-0.0006285636706608658</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.01450904382949666</v>
+        <v>0.007149947727000448</v>
       </c>
       <c r="C22">
-        <v>0.2411698797070604</v>
+        <v>-0.1729632833969262</v>
       </c>
       <c r="D22">
-        <v>0.07456276743518184</v>
+        <v>-0.02047979621840863</v>
       </c>
       <c r="E22">
-        <v>-0.2930754789296192</v>
+        <v>0.1655987305512972</v>
       </c>
       <c r="F22">
-        <v>0.3371094448158406</v>
+        <v>-0.07504776181633449</v>
       </c>
       <c r="G22">
-        <v>0.07183138156056862</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>-0.4786445175385546</v>
+      </c>
+      <c r="H22">
+        <v>-0.0621724981179983</v>
+      </c>
+      <c r="I22">
+        <v>0.3089739053135472</v>
+      </c>
+      <c r="J22">
+        <v>-0.1379582997846268</v>
+      </c>
+      <c r="K22">
+        <v>0.0174606941782748</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.01543159585437772</v>
+        <v>0.01229648775617793</v>
       </c>
       <c r="C23">
-        <v>0.2451493700497261</v>
+        <v>-0.1762921673964702</v>
       </c>
       <c r="D23">
-        <v>0.07922509742153641</v>
+        <v>-0.02002488216577916</v>
       </c>
       <c r="E23">
-        <v>-0.2879301371002887</v>
+        <v>0.1574573977451177</v>
       </c>
       <c r="F23">
-        <v>0.332198292842591</v>
+        <v>-0.07270111422961351</v>
       </c>
       <c r="G23">
-        <v>0.0721080263592266</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>-0.4670718607471082</v>
+      </c>
+      <c r="H23">
+        <v>-0.0571416558409037</v>
+      </c>
+      <c r="I23">
+        <v>0.2886786783484438</v>
+      </c>
+      <c r="J23">
+        <v>-0.1272624743709766</v>
+      </c>
+      <c r="K23">
+        <v>0.0223055956166472</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.006175055307375435</v>
+        <v>0.01705252565366999</v>
       </c>
       <c r="C24">
-        <v>0.05770433857032213</v>
+        <v>-0.0633112828983793</v>
       </c>
       <c r="D24">
-        <v>-0.04423012682151999</v>
+        <v>-0.04015683262595161</v>
       </c>
       <c r="E24">
-        <v>0.01030475167725605</v>
+        <v>-0.01019937621709401</v>
       </c>
       <c r="F24">
-        <v>0.002429451020309035</v>
+        <v>-0.00889812563758114</v>
       </c>
       <c r="G24">
-        <v>-0.05879242596406783</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.0008354072997506226</v>
+      </c>
+      <c r="H24">
+        <v>0.03018308334366414</v>
+      </c>
+      <c r="I24">
+        <v>-0.03421058668924685</v>
+      </c>
+      <c r="J24">
+        <v>0.02543719865055867</v>
+      </c>
+      <c r="K24">
+        <v>0.0243873023682475</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.006806713542277873</v>
+        <v>0.02129665811412747</v>
       </c>
       <c r="C25">
-        <v>0.06552355857720134</v>
+        <v>-0.06656757207690737</v>
       </c>
       <c r="D25">
-        <v>-0.02333325749236853</v>
+        <v>-0.0328380158988297</v>
       </c>
       <c r="E25">
-        <v>0.01633426836268969</v>
+        <v>-0.01345736533040208</v>
       </c>
       <c r="F25">
-        <v>-0.003469548181206753</v>
+        <v>-0.01067834607002865</v>
       </c>
       <c r="G25">
-        <v>-0.05418559241770317</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.006219865911247498</v>
+      </c>
+      <c r="H25">
+        <v>0.02176838269752235</v>
+      </c>
+      <c r="I25">
+        <v>-0.03272228186950514</v>
+      </c>
+      <c r="J25">
+        <v>0.02268613039900043</v>
+      </c>
+      <c r="K25">
+        <v>0.01139334070018775</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.007148580430156745</v>
+        <v>0.02248605321016599</v>
       </c>
       <c r="C26">
-        <v>0.04953338313899115</v>
+        <v>-0.05475896751219348</v>
       </c>
       <c r="D26">
-        <v>-0.07891140480188429</v>
+        <v>-0.06251287324846067</v>
       </c>
       <c r="E26">
-        <v>-0.0008767117594108103</v>
+        <v>-0.009822280631378494</v>
       </c>
       <c r="F26">
-        <v>-0.02786177120441678</v>
+        <v>-0.01378956129386027</v>
       </c>
       <c r="G26">
-        <v>-0.06530571332657245</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.001052006198455987</v>
+      </c>
+      <c r="H26">
+        <v>0.01689390577092784</v>
+      </c>
+      <c r="I26">
+        <v>-0.08866780495133869</v>
+      </c>
+      <c r="J26">
+        <v>0.0895870013635252</v>
+      </c>
+      <c r="K26">
+        <v>0.06071173277352838</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.3650373719667522</v>
+        <v>0.3100443337682556</v>
       </c>
       <c r="C28">
-        <v>-0.08487806154033012</v>
+        <v>0.1143928405607453</v>
       </c>
       <c r="D28">
-        <v>0.0200683612825831</v>
+        <v>0.0333414040393875</v>
       </c>
       <c r="E28">
-        <v>0.05241038712987008</v>
+        <v>0.0203485347621181</v>
       </c>
       <c r="F28">
-        <v>-0.05965933471559227</v>
+        <v>0.01265071852964149</v>
       </c>
       <c r="G28">
-        <v>0.08655172292486012</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.04645366041450253</v>
+      </c>
+      <c r="H28">
+        <v>-0.09953440854908512</v>
+      </c>
+      <c r="I28">
+        <v>-0.0676657195968158</v>
+      </c>
+      <c r="J28">
+        <v>0.04499347627715931</v>
+      </c>
+      <c r="K28">
+        <v>-0.209925276525698</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.0103384102825228</v>
+        <v>0.01695460725306587</v>
       </c>
       <c r="C29">
-        <v>0.0818161995865436</v>
+        <v>-0.0831586664808926</v>
       </c>
       <c r="D29">
-        <v>-0.04930421897467437</v>
+        <v>-0.04910709635455919</v>
       </c>
       <c r="E29">
-        <v>-0.01795556425684372</v>
+        <v>-0.01931533964920685</v>
       </c>
       <c r="F29">
-        <v>-0.03707811126787769</v>
+        <v>0.04206494641952741</v>
       </c>
       <c r="G29">
-        <v>-0.1159736176034443</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.008857155500276572</v>
+      </c>
+      <c r="H29">
+        <v>0.1902887008989151</v>
+      </c>
+      <c r="I29">
+        <v>-0.2037836177436566</v>
+      </c>
+      <c r="J29">
+        <v>0.1189557595664944</v>
+      </c>
+      <c r="K29">
+        <v>0.0002396273968914058</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.02650567162683928</v>
+        <v>0.03404624613902563</v>
       </c>
       <c r="C30">
-        <v>0.1712492894080413</v>
+        <v>-0.1445289992917853</v>
       </c>
       <c r="D30">
-        <v>-0.07387822064326365</v>
+        <v>-0.0559297439373273</v>
       </c>
       <c r="E30">
-        <v>-0.03184798271498179</v>
+        <v>0.03114883596684995</v>
       </c>
       <c r="F30">
-        <v>0.05103255173033122</v>
+        <v>-0.009603307521605379</v>
       </c>
       <c r="G30">
-        <v>-0.03968900089140025</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.0501909698963692</v>
+      </c>
+      <c r="H30">
+        <v>0.02133158367689607</v>
+      </c>
+      <c r="I30">
+        <v>-0.03952926879434706</v>
+      </c>
+      <c r="J30">
+        <v>-0.003861951856415582</v>
+      </c>
+      <c r="K30">
+        <v>0.04516403979565869</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>0.003267560786178278</v>
+        <v>0.01480994568523074</v>
       </c>
       <c r="C31">
-        <v>0.04870450837375356</v>
+        <v>-0.07588133399114605</v>
       </c>
       <c r="D31">
-        <v>-0.03514530725115287</v>
+        <v>-0.04121273938642732</v>
       </c>
       <c r="E31">
-        <v>0.0145893700032001</v>
+        <v>0.00190319022752587</v>
       </c>
       <c r="F31">
-        <v>-0.007403274967773789</v>
+        <v>-0.002204951016471172</v>
       </c>
       <c r="G31">
-        <v>-0.01344960887403862</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.007447593006564294</v>
+      </c>
+      <c r="H31">
+        <v>-0.0143831196186631</v>
+      </c>
+      <c r="I31">
+        <v>-0.04213298480484511</v>
+      </c>
+      <c r="J31">
+        <v>0.01781568161914069</v>
+      </c>
+      <c r="K31">
+        <v>0.01106567126879267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.01838511327509921</v>
+        <v>0.02231101743618603</v>
       </c>
       <c r="C32">
-        <v>0.07600409567961708</v>
+        <v>-0.05284280281121871</v>
       </c>
       <c r="D32">
-        <v>-0.007659457593449262</v>
+        <v>-0.0245804152673712</v>
       </c>
       <c r="E32">
-        <v>-0.1535550203049269</v>
+        <v>-0.003677343102912299</v>
       </c>
       <c r="F32">
-        <v>0.00689546694177476</v>
+        <v>0.05808893783172978</v>
       </c>
       <c r="G32">
-        <v>-0.08479031449477382</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.1035190510213363</v>
+      </c>
+      <c r="H32">
+        <v>0.09981313178277383</v>
+      </c>
+      <c r="I32">
+        <v>-0.09912900296673596</v>
+      </c>
+      <c r="J32">
+        <v>0.1249706673547087</v>
+      </c>
+      <c r="K32">
+        <v>-0.2564097107464069</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.01061057648087385</v>
+        <v>0.01715930330078255</v>
       </c>
       <c r="C33">
-        <v>0.09040917576171713</v>
+        <v>-0.1019082940036327</v>
       </c>
       <c r="D33">
-        <v>-0.06631382213714748</v>
+        <v>-0.0519758240555426</v>
       </c>
       <c r="E33">
-        <v>-0.01256681838878747</v>
+        <v>0.01134295555635232</v>
       </c>
       <c r="F33">
-        <v>-0.01146815689012568</v>
+        <v>-0.008126575269415241</v>
       </c>
       <c r="G33">
-        <v>-0.04707966756991902</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.01922012043918638</v>
+      </c>
+      <c r="H33">
+        <v>0.03761921796784455</v>
+      </c>
+      <c r="I33">
+        <v>-0.04403950548562576</v>
+      </c>
+      <c r="J33">
+        <v>0.03760189518465749</v>
+      </c>
+      <c r="K33">
+        <v>-0.01807005816445465</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.002918185952044941</v>
+        <v>0.01770477879355657</v>
       </c>
       <c r="C34">
-        <v>0.05095233626904912</v>
+        <v>-0.04942234937488151</v>
       </c>
       <c r="D34">
-        <v>-0.02285718976734363</v>
+        <v>-0.02120242246899305</v>
       </c>
       <c r="E34">
-        <v>0.002758408588418903</v>
+        <v>-0.01392388252134352</v>
       </c>
       <c r="F34">
-        <v>-0.01973219771105728</v>
+        <v>-0.001342619567948647</v>
       </c>
       <c r="G34">
-        <v>-0.03444681644146703</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.003065706448229824</v>
+      </c>
+      <c r="H34">
+        <v>0.02514065527102618</v>
+      </c>
+      <c r="I34">
+        <v>-0.01851121348903495</v>
+      </c>
+      <c r="J34">
+        <v>-0.01756902162715903</v>
+      </c>
+      <c r="K34">
+        <v>0.01278004095638599</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.003478268692452744</v>
+        <v>0.01029951641720189</v>
       </c>
       <c r="C35">
-        <v>0.02970684496333756</v>
+        <v>-0.0454975263787146</v>
       </c>
       <c r="D35">
-        <v>-0.009076237619596939</v>
+        <v>-0.0216187180390798</v>
       </c>
       <c r="E35">
-        <v>-0.007089767677579593</v>
+        <v>0.003699485561846066</v>
       </c>
       <c r="F35">
-        <v>-0.01068816651560677</v>
+        <v>0.01114988197287281</v>
       </c>
       <c r="G35">
-        <v>-0.04036703652304691</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>-0.008732477594682915</v>
+      </c>
+      <c r="H35">
+        <v>0.0863279573160475</v>
+      </c>
+      <c r="I35">
+        <v>-0.124927173944927</v>
+      </c>
+      <c r="J35">
+        <v>0.0465498196772401</v>
+      </c>
+      <c r="K35">
+        <v>-0.019542942234184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.01009476423574511</v>
+        <v>0.01381494138531292</v>
       </c>
       <c r="C36">
-        <v>0.05464824960195366</v>
+        <v>-0.04585449002482167</v>
       </c>
       <c r="D36">
-        <v>-0.06107489233389211</v>
+        <v>-0.04413536939294473</v>
       </c>
       <c r="E36">
-        <v>0.004564424725219334</v>
+        <v>0.009284063162663718</v>
       </c>
       <c r="F36">
-        <v>-0.01349776899216867</v>
+        <v>-0.003589651272984223</v>
       </c>
       <c r="G36">
-        <v>-0.04597337926275891</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.01637540256264956</v>
+      </c>
+      <c r="H36">
+        <v>0.01324423949967991</v>
+      </c>
+      <c r="I36">
+        <v>-0.06693839660430619</v>
+      </c>
+      <c r="J36">
+        <v>0.06564993899474274</v>
+      </c>
+      <c r="K36">
+        <v>0.0187707157231304</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.03242561596993827</v>
+        <v>0.009715593750297746</v>
       </c>
       <c r="C38">
-        <v>0.05061618880691207</v>
+        <v>-0.05844349600698664</v>
       </c>
       <c r="D38">
-        <v>-0.04338687361521695</v>
+        <v>-0.03749923379982767</v>
       </c>
       <c r="E38">
-        <v>0.008420552335810591</v>
+        <v>0.04682578174412114</v>
       </c>
       <c r="F38">
-        <v>-0.01170389956737403</v>
+        <v>-0.0211047344392295</v>
       </c>
       <c r="G38">
-        <v>-0.0558165267009015</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.005911199293860316</v>
+      </c>
+      <c r="H38">
+        <v>0.03206663744688232</v>
+      </c>
+      <c r="I38">
+        <v>-0.05574979599238856</v>
+      </c>
+      <c r="J38">
+        <v>0.04486745918434906</v>
+      </c>
+      <c r="K38">
+        <v>-0.0622646560633177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.003787317251089539</v>
+        <v>0.02452543151311055</v>
       </c>
       <c r="C39">
-        <v>0.1275540762022895</v>
+        <v>-0.1316765972129482</v>
       </c>
       <c r="D39">
-        <v>-0.0613034501478838</v>
+        <v>-0.05911584590670685</v>
       </c>
       <c r="E39">
-        <v>0.006056730143798047</v>
+        <v>0.008014846694423688</v>
       </c>
       <c r="F39">
-        <v>-0.01395276432286732</v>
+        <v>0.01336008307326556</v>
       </c>
       <c r="G39">
-        <v>-0.07765021698026942</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.01689023073057598</v>
+      </c>
+      <c r="H39">
+        <v>0.05116517553546059</v>
+      </c>
+      <c r="I39">
+        <v>-0.04219494089636323</v>
+      </c>
+      <c r="J39">
+        <v>-0.005238960843390217</v>
+      </c>
+      <c r="K39">
+        <v>0.09121560854445074</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.00620435960927305</v>
+        <v>0.01467373763376128</v>
       </c>
       <c r="C40">
-        <v>0.03608078783207145</v>
+        <v>-0.0584465287853943</v>
       </c>
       <c r="D40">
-        <v>-0.03303458226541726</v>
+        <v>-0.04478801947828415</v>
       </c>
       <c r="E40">
-        <v>-0.1272722332292284</v>
+        <v>0.003889544603945349</v>
       </c>
       <c r="F40">
-        <v>0.06639407964139531</v>
+        <v>0.03175014230127503</v>
       </c>
       <c r="G40">
-        <v>-0.08481623455336436</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.02752511086827941</v>
+      </c>
+      <c r="H40">
+        <v>0.1532384935528908</v>
+      </c>
+      <c r="I40">
+        <v>0.007141415334182393</v>
+      </c>
+      <c r="J40">
+        <v>0.0213185514210435</v>
+      </c>
+      <c r="K40">
+        <v>0.03249200510306764</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.01113991664521736</v>
+        <v>0.02195898302841114</v>
       </c>
       <c r="C41">
-        <v>0.02245548277556487</v>
+        <v>-0.04735688945708161</v>
       </c>
       <c r="D41">
-        <v>-0.004783332912016219</v>
+        <v>-0.01499201478023915</v>
       </c>
       <c r="E41">
-        <v>0.004776158636698942</v>
+        <v>-0.006017471221536524</v>
       </c>
       <c r="F41">
-        <v>-0.009730340698511829</v>
+        <v>-0.0004372192836007584</v>
       </c>
       <c r="G41">
-        <v>0.04286545983685208</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.01383986534062044</v>
+      </c>
+      <c r="H41">
+        <v>-0.002886854372246486</v>
+      </c>
+      <c r="I41">
+        <v>-0.01751066103223152</v>
+      </c>
+      <c r="J41">
+        <v>0.02507988294085174</v>
+      </c>
+      <c r="K41">
+        <v>-0.02715756957186453</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.004762727675676299</v>
+        <v>0.01911123526158114</v>
       </c>
       <c r="C43">
-        <v>0.02393871717992503</v>
+        <v>-0.04473473363603201</v>
       </c>
       <c r="D43">
-        <v>-0.02313402357636227</v>
+        <v>-0.02920865047926781</v>
       </c>
       <c r="E43">
-        <v>0.004473151592499268</v>
+        <v>0.003557525600565807</v>
       </c>
       <c r="F43">
-        <v>0.001088865263375891</v>
+        <v>-0.01046114263171274</v>
       </c>
       <c r="G43">
-        <v>0.002996836610885747</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.008457503066528326</v>
+      </c>
+      <c r="H43">
+        <v>0.01123238004485177</v>
+      </c>
+      <c r="I43">
+        <v>-0.02787057739380164</v>
+      </c>
+      <c r="J43">
+        <v>0.02672850149833677</v>
+      </c>
+      <c r="K43">
+        <v>0.002696268355843549</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.02161247861287215</v>
+        <v>0.01699186126346608</v>
       </c>
       <c r="C44">
-        <v>0.09997556875526226</v>
+        <v>-0.09841105254314134</v>
       </c>
       <c r="D44">
-        <v>-0.03536344644980271</v>
+        <v>-0.05726722233697826</v>
       </c>
       <c r="E44">
-        <v>-0.02707625292637126</v>
+        <v>0.04730055646192206</v>
       </c>
       <c r="F44">
-        <v>0.02409556277312419</v>
+        <v>-0.02001433953947438</v>
       </c>
       <c r="G44">
-        <v>-0.07540916361911139</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.0525820647007671</v>
+      </c>
+      <c r="H44">
+        <v>0.05774649312630185</v>
+      </c>
+      <c r="I44">
+        <v>-0.01824258273950442</v>
+      </c>
+      <c r="J44">
+        <v>0.03590868399231252</v>
+      </c>
+      <c r="K44">
+        <v>0.05127038596623008</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2275,232 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>0.003127889892037941</v>
+        <v>0.004867420646892177</v>
       </c>
       <c r="C46">
-        <v>0.06260623676495841</v>
+        <v>-0.06530823865808079</v>
       </c>
       <c r="D46">
-        <v>-0.04702024124768339</v>
+        <v>-0.02822247100009203</v>
       </c>
       <c r="E46">
-        <v>-0.01925827379745963</v>
+        <v>0.002483434587802836</v>
       </c>
       <c r="F46">
-        <v>-0.01328375404412739</v>
+        <v>0.008346766346007428</v>
       </c>
       <c r="G46">
-        <v>-0.0508162858455406</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.002875586009470316</v>
+      </c>
+      <c r="H46">
+        <v>0.05473561467336194</v>
+      </c>
+      <c r="I46">
+        <v>-0.06371708954462581</v>
+      </c>
+      <c r="J46">
+        <v>0.06837115597715815</v>
+      </c>
+      <c r="K46">
+        <v>0.01472608227295373</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.005135511854689333</v>
+        <v>0.02215098804682813</v>
       </c>
       <c r="C47">
-        <v>0.05547701778565753</v>
+        <v>-0.07245424086940618</v>
       </c>
       <c r="D47">
-        <v>-0.05762490888141458</v>
+        <v>-0.04339311417026537</v>
       </c>
       <c r="E47">
-        <v>0.01754034714287581</v>
+        <v>-0.01424145897091881</v>
       </c>
       <c r="F47">
-        <v>-0.05058820236499022</v>
+        <v>-0.002104504135400247</v>
       </c>
       <c r="G47">
-        <v>-0.02527291469923667</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.008497869117589591</v>
+      </c>
+      <c r="H47">
+        <v>0.02006721020219651</v>
+      </c>
+      <c r="I47">
+        <v>-0.05706763830296709</v>
+      </c>
+      <c r="J47">
+        <v>0.04727048998914761</v>
+      </c>
+      <c r="K47">
+        <v>-0.01681086554714989</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.005795812507108871</v>
+        <v>0.01642252287314089</v>
       </c>
       <c r="C48">
-        <v>0.05608604934370808</v>
+        <v>-0.04553928715438924</v>
       </c>
       <c r="D48">
-        <v>-0.06755867190973343</v>
+        <v>-0.0532258450530973</v>
       </c>
       <c r="E48">
-        <v>0.01011228949089281</v>
+        <v>-0.008361695326496041</v>
       </c>
       <c r="F48">
-        <v>0.002328525232155859</v>
+        <v>-0.01887073436110307</v>
       </c>
       <c r="G48">
-        <v>-0.05259303330563452</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.02527097311300161</v>
+      </c>
+      <c r="H48">
+        <v>0.01733244780085485</v>
+      </c>
+      <c r="I48">
+        <v>-0.09384966587441004</v>
+      </c>
+      <c r="J48">
+        <v>0.08682223135635053</v>
+      </c>
+      <c r="K48">
+        <v>0.03988669442644134</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.02094258579394897</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.04948697503229852</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.009313837017587341</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>-0.02813386909649171</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>-0.007246644112004799</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.07201541022330475</v>
+      </c>
+      <c r="H49">
+        <v>0.05195435561711489</v>
+      </c>
+      <c r="I49">
+        <v>0.0160681916407062</v>
+      </c>
+      <c r="J49">
+        <v>-0.1117098184978306</v>
+      </c>
+      <c r="K49">
+        <v>0.05188684881218456</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.0001545280640506775</v>
+        <v>0.01547995000587908</v>
       </c>
       <c r="C50">
-        <v>0.06248073295442109</v>
+        <v>-0.07518880816640987</v>
       </c>
       <c r="D50">
-        <v>-0.03279245079048585</v>
+        <v>-0.03249641990304493</v>
       </c>
       <c r="E50">
-        <v>0.004049743467505025</v>
+        <v>-0.001029621777914574</v>
       </c>
       <c r="F50">
-        <v>0.008108362399351334</v>
+        <v>-0.0135293884437471</v>
       </c>
       <c r="G50">
-        <v>-0.02948045484991281</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.01642235539522074</v>
+      </c>
+      <c r="H50">
+        <v>0.008121363617281019</v>
+      </c>
+      <c r="I50">
+        <v>-0.06607134097414531</v>
+      </c>
+      <c r="J50">
+        <v>0.01976756732957866</v>
+      </c>
+      <c r="K50">
+        <v>-0.05119334603031032</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.003862920520472567</v>
+        <v>-0.004221029827948376</v>
       </c>
       <c r="C51">
-        <v>0.07162178108909457</v>
+        <v>-0.03567075824490238</v>
       </c>
       <c r="D51">
-        <v>-0.04199021178620827</v>
+        <v>-0.02635444300919656</v>
       </c>
       <c r="E51">
-        <v>-0.03398948630151742</v>
+        <v>0.02954600767868093</v>
       </c>
       <c r="F51">
-        <v>-0.0009491778574372685</v>
+        <v>0.01598642937294651</v>
       </c>
       <c r="G51">
-        <v>0.00073287813757572</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.0211131107195191</v>
+      </c>
+      <c r="H51">
+        <v>0.03884162479510912</v>
+      </c>
+      <c r="I51">
+        <v>-0.0629207261698851</v>
+      </c>
+      <c r="J51">
+        <v>0.08801962401183952</v>
+      </c>
+      <c r="K51">
+        <v>0.03494408595160093</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2520,162 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.02950844223613319</v>
+        <v>0.06098542502395442</v>
       </c>
       <c r="C53">
-        <v>0.1137172746369305</v>
+        <v>-0.131381057048638</v>
       </c>
       <c r="D53">
-        <v>-0.06781192029706166</v>
+        <v>-0.05756143505170128</v>
       </c>
       <c r="E53">
-        <v>0.1351106781258504</v>
+        <v>-0.04274412910732901</v>
       </c>
       <c r="F53">
-        <v>-0.0451804208213286</v>
+        <v>0.008456511121499812</v>
       </c>
       <c r="G53">
-        <v>0.08434224957463311</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.05327660369727039</v>
+      </c>
+      <c r="H53">
+        <v>-0.09332676468436829</v>
+      </c>
+      <c r="I53">
+        <v>0.0006054040231582047</v>
+      </c>
+      <c r="J53">
+        <v>-0.0003024838116067695</v>
+      </c>
+      <c r="K53">
+        <v>-0.01805680702703432</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.002664289108858369</v>
+        <v>0.01624944026261595</v>
       </c>
       <c r="C54">
-        <v>0.06974287324519307</v>
+        <v>-0.07104622173573812</v>
       </c>
       <c r="D54">
-        <v>-0.01341412600981422</v>
+        <v>-0.01210427480741826</v>
       </c>
       <c r="E54">
-        <v>0.01881732140024607</v>
+        <v>-0.01359991678886181</v>
       </c>
       <c r="F54">
-        <v>-0.002139177731061002</v>
+        <v>-0.004255346910960306</v>
       </c>
       <c r="G54">
-        <v>-0.02850801331707891</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.0004749719990029434</v>
+      </c>
+      <c r="H54">
+        <v>0.02681796628398253</v>
+      </c>
+      <c r="I54">
+        <v>-0.04464696280326531</v>
+      </c>
+      <c r="J54">
+        <v>0.03853034613260951</v>
+      </c>
+      <c r="K54">
+        <v>0.0250476788551569</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.01095701510159634</v>
+        <v>0.03090275718961015</v>
       </c>
       <c r="C55">
-        <v>0.07369436143369519</v>
+        <v>-0.08252948774749168</v>
       </c>
       <c r="D55">
-        <v>-0.06187507441052334</v>
+        <v>-0.05309500754251028</v>
       </c>
       <c r="E55">
-        <v>0.06358744981747738</v>
+        <v>-0.03619973531380875</v>
       </c>
       <c r="F55">
-        <v>-0.0329719968357953</v>
+        <v>-0.002996786513013017</v>
       </c>
       <c r="G55">
-        <v>0.01952486740886909</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.03275047634780782</v>
+      </c>
+      <c r="H55">
+        <v>-0.03810135432422602</v>
+      </c>
+      <c r="I55">
+        <v>-0.001422806447947288</v>
+      </c>
+      <c r="J55">
+        <v>0.01047180348593892</v>
+      </c>
+      <c r="K55">
+        <v>0.01258266420448098</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.009924489580180837</v>
+        <v>0.04908784170870151</v>
       </c>
       <c r="C56">
-        <v>0.1430101755079035</v>
+        <v>-0.1532939749330079</v>
       </c>
       <c r="D56">
-        <v>-0.06792741684610329</v>
+        <v>-0.08077874252090644</v>
       </c>
       <c r="E56">
-        <v>0.1072961002769864</v>
+        <v>-0.08879515486732056</v>
       </c>
       <c r="F56">
-        <v>-0.06983091075018587</v>
+        <v>0.03294544306416925</v>
       </c>
       <c r="G56">
-        <v>0.1295787500611945</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.07440708760298266</v>
+      </c>
+      <c r="H56">
+        <v>-0.1642912220259754</v>
+      </c>
+      <c r="I56">
+        <v>-0.01716035999087145</v>
+      </c>
+      <c r="J56">
+        <v>-0.02409479591201313</v>
+      </c>
+      <c r="K56">
+        <v>-0.001785599595821629</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2695,442 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.02964831325891685</v>
+        <v>0.01855116396651183</v>
       </c>
       <c r="C58">
-        <v>0.2918046137871418</v>
+        <v>-0.1744871353391865</v>
       </c>
       <c r="D58">
-        <v>0.009453235599643775</v>
+        <v>-0.04395537864791037</v>
       </c>
       <c r="E58">
-        <v>-0.1325061867694705</v>
+        <v>0.2197126454748539</v>
       </c>
       <c r="F58">
-        <v>0.2483037392190702</v>
+        <v>-0.006111255675924804</v>
       </c>
       <c r="G58">
-        <v>0.02775369906419166</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.2925790207204087</v>
+      </c>
+      <c r="H58">
+        <v>-0.06655132698025658</v>
+      </c>
+      <c r="I58">
+        <v>-0.009917867894954574</v>
+      </c>
+      <c r="J58">
+        <v>0.1511695617770552</v>
+      </c>
+      <c r="K58">
+        <v>-0.07240837408248911</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.2899586350050037</v>
+        <v>0.2887096208750791</v>
       </c>
       <c r="C59">
-        <v>0.000227431552126514</v>
+        <v>0.0528776308156864</v>
       </c>
       <c r="D59">
-        <v>0.005243153425656352</v>
+        <v>0.00603522917135024</v>
       </c>
       <c r="E59">
-        <v>-0.05554938212641437</v>
+        <v>0.01686508626493794</v>
       </c>
       <c r="F59">
-        <v>-0.04683494156959447</v>
+        <v>0.02135990470183892</v>
       </c>
       <c r="G59">
-        <v>0.01586756598813014</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.04819474885578068</v>
+      </c>
+      <c r="H59">
+        <v>-0.01232427007455302</v>
+      </c>
+      <c r="I59">
+        <v>0.02572061551470222</v>
+      </c>
+      <c r="J59">
+        <v>-0.004045521825459541</v>
+      </c>
+      <c r="K59">
+        <v>-0.03840717154563757</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.1045197795534952</v>
+        <v>0.1525230946814737</v>
       </c>
       <c r="C60">
-        <v>0.1450036755506645</v>
+        <v>-0.1599152237562071</v>
       </c>
       <c r="D60">
-        <v>-0.08519746936005519</v>
+        <v>-0.04045416160372775</v>
       </c>
       <c r="E60">
-        <v>0.08406248875267398</v>
+        <v>-0.1624043854915364</v>
       </c>
       <c r="F60">
-        <v>-0.1930317582824119</v>
+        <v>0.0009664864845573094</v>
       </c>
       <c r="G60">
-        <v>-0.2384086830374337</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.09307858966956925</v>
+      </c>
+      <c r="H60">
+        <v>0.1890741986137825</v>
+      </c>
+      <c r="I60">
+        <v>0.2601489707806742</v>
+      </c>
+      <c r="J60">
+        <v>-0.08597405007462733</v>
+      </c>
+      <c r="K60">
+        <v>0.03108367713960733</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.002864957879753605</v>
+        <v>0.02503631172939058</v>
       </c>
       <c r="C61">
-        <v>0.07975808449236055</v>
+        <v>-0.09868514028208149</v>
       </c>
       <c r="D61">
-        <v>-0.06649722118043892</v>
+        <v>-0.05437886610341464</v>
       </c>
       <c r="E61">
-        <v>0.0173974849995369</v>
+        <v>-0.01613767011188882</v>
       </c>
       <c r="F61">
-        <v>-0.03200152175861738</v>
+        <v>0.001344693670552493</v>
       </c>
       <c r="G61">
-        <v>-0.07874727247044483</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.02212395005432387</v>
+      </c>
+      <c r="H61">
+        <v>0.03971785872200429</v>
+      </c>
+      <c r="I61">
+        <v>-0.05658856532427086</v>
+      </c>
+      <c r="J61">
+        <v>-0.002351267767462719</v>
+      </c>
+      <c r="K61">
+        <v>0.03260692194250567</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.002987007691204681</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.01448308211904075</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.003083434266557556</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>-0.01634976910905662</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>-0.02107766927442133</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>-0.02641373190561438</v>
+      </c>
+      <c r="H62">
+        <v>0.02156636343151201</v>
+      </c>
+      <c r="I62">
+        <v>-0.01616636044087721</v>
+      </c>
+      <c r="J62">
+        <v>-0.004140538124178689</v>
+      </c>
+      <c r="K62">
+        <v>-0.008577933531035047</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>0.001750125839531127</v>
+        <v>0.02701866096560668</v>
       </c>
       <c r="C63">
-        <v>0.05865481860302124</v>
+        <v>-0.06418796961528445</v>
       </c>
       <c r="D63">
-        <v>-0.03968545444719512</v>
+        <v>-0.05894306901166729</v>
       </c>
       <c r="E63">
-        <v>0.021064021839144</v>
+        <v>-0.01451557966873259</v>
       </c>
       <c r="F63">
-        <v>-0.002900015851285133</v>
+        <v>-0.001099646359011118</v>
       </c>
       <c r="G63">
-        <v>-0.007103376365540272</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.002879788487550415</v>
+      </c>
+      <c r="H63">
+        <v>0.01405382927723065</v>
+      </c>
+      <c r="I63">
+        <v>-0.06755782914444228</v>
+      </c>
+      <c r="J63">
+        <v>0.02123473932995502</v>
+      </c>
+      <c r="K63">
+        <v>0.01358803801101967</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>0.002779350379986889</v>
+        <v>0.01774927754389313</v>
       </c>
       <c r="C64">
-        <v>0.08388533030204802</v>
+        <v>-0.09128466369854518</v>
       </c>
       <c r="D64">
-        <v>-0.06939901134520646</v>
+        <v>-0.03428523181181749</v>
       </c>
       <c r="E64">
-        <v>0.003733287101905357</v>
+        <v>-0.01459433938533436</v>
       </c>
       <c r="F64">
-        <v>0.008760151256775737</v>
+        <v>-0.03851591865324699</v>
       </c>
       <c r="G64">
-        <v>-0.05736263969040489</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.03942333314129964</v>
+      </c>
+      <c r="H64">
+        <v>0.07074604172251288</v>
+      </c>
+      <c r="I64">
+        <v>-0.03731548898074642</v>
+      </c>
+      <c r="J64">
+        <v>0.01488035455087859</v>
+      </c>
+      <c r="K64">
+        <v>0.07825307497560892</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.004968537219531239</v>
+        <v>0.0328605660635739</v>
       </c>
       <c r="C65">
-        <v>0.08783885349217006</v>
+        <v>-0.09277992354410301</v>
       </c>
       <c r="D65">
-        <v>-0.03583734684544746</v>
+        <v>-0.02235373141914351</v>
       </c>
       <c r="E65">
-        <v>-0.02356790166367277</v>
+        <v>0.0009938209830671239</v>
       </c>
       <c r="F65">
-        <v>-0.01041516691178109</v>
+        <v>-0.01598263767389293</v>
       </c>
       <c r="G65">
-        <v>-0.07396654295421186</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.00151048155130376</v>
+      </c>
+      <c r="H65">
+        <v>0.08835526979221503</v>
+      </c>
+      <c r="I65">
+        <v>0.02021112698120884</v>
+      </c>
+      <c r="J65">
+        <v>-0.0110669786400678</v>
+      </c>
+      <c r="K65">
+        <v>0.06410962439129823</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.0008346703551089579</v>
+        <v>0.0221916863699025</v>
       </c>
       <c r="C66">
-        <v>0.1691082133742877</v>
+        <v>-0.1708777302491691</v>
       </c>
       <c r="D66">
-        <v>-0.0509391075412505</v>
+        <v>-0.05083527914992616</v>
       </c>
       <c r="E66">
-        <v>-0.03794262698387013</v>
+        <v>0.002818782969539035</v>
       </c>
       <c r="F66">
-        <v>-0.02573204917749617</v>
+        <v>0.01669015666841417</v>
       </c>
       <c r="G66">
-        <v>-0.09721485834951314</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.005859306497334488</v>
+      </c>
+      <c r="H66">
+        <v>0.04854016670102277</v>
+      </c>
+      <c r="I66">
+        <v>-0.06234944599784438</v>
+      </c>
+      <c r="J66">
+        <v>-0.01227184572634786</v>
+      </c>
+      <c r="K66">
+        <v>0.06390746565159351</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.03190231804861258</v>
+        <v>0.01924236870847905</v>
       </c>
       <c r="C67">
-        <v>0.02730335319007049</v>
+        <v>-0.05128172908313726</v>
       </c>
       <c r="D67">
-        <v>-0.05936878698593559</v>
+        <v>-0.03874859728694634</v>
       </c>
       <c r="E67">
-        <v>0.03839697666825755</v>
+        <v>0.02805066796367053</v>
       </c>
       <c r="F67">
-        <v>-0.02596265365496503</v>
+        <v>-0.01808504588196033</v>
       </c>
       <c r="G67">
-        <v>-0.06526387470791062</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.02631348303301088</v>
+      </c>
+      <c r="H67">
+        <v>0.04663395038485913</v>
+      </c>
+      <c r="I67">
+        <v>-0.01992898639411276</v>
+      </c>
+      <c r="J67">
+        <v>0.05323420602144516</v>
+      </c>
+      <c r="K67">
+        <v>-0.04402095390038993</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.2954179775683977</v>
+        <v>0.2929434756054314</v>
       </c>
       <c r="C68">
-        <v>-0.02153193099571247</v>
+        <v>0.07719171213436822</v>
       </c>
       <c r="D68">
-        <v>-0.003628470015592554</v>
+        <v>0.02598375128894394</v>
       </c>
       <c r="E68">
-        <v>-0.02374935905806183</v>
+        <v>-0.008399885058474131</v>
       </c>
       <c r="F68">
-        <v>-0.001433772252634493</v>
+        <v>-0.002513749765587776</v>
       </c>
       <c r="G68">
-        <v>-0.008195688343115867</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.04905276400379333</v>
+      </c>
+      <c r="H68">
+        <v>-0.01657462854685482</v>
+      </c>
+      <c r="I68">
+        <v>-0.03299203064260988</v>
+      </c>
+      <c r="J68">
+        <v>0.02021976941409314</v>
+      </c>
+      <c r="K68">
+        <v>-0.04547610320444975</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.008714299620086335</v>
+        <v>0.0102790868191407</v>
       </c>
       <c r="C69">
-        <v>0.05220502581206286</v>
+        <v>-0.04576596134017889</v>
       </c>
       <c r="D69">
-        <v>-0.05591591519983916</v>
+        <v>-0.02504399700355228</v>
       </c>
       <c r="E69">
-        <v>0.02768061113122299</v>
+        <v>0.002490772580310297</v>
       </c>
       <c r="F69">
-        <v>-0.003969525454741204</v>
+        <v>0.009390106851848656</v>
       </c>
       <c r="G69">
-        <v>-0.02688580039747455</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.01165849029535355</v>
+      </c>
+      <c r="H69">
+        <v>0.02161246727300568</v>
+      </c>
+      <c r="I69">
+        <v>-0.01120076692555266</v>
+      </c>
+      <c r="J69">
+        <v>0.0364509888604271</v>
+      </c>
+      <c r="K69">
+        <v>-0.02298873717851789</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3150,897 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.2879037628892083</v>
+        <v>0.2743083899273954</v>
       </c>
       <c r="C71">
-        <v>-0.03827365138138882</v>
+        <v>0.08083139961715403</v>
       </c>
       <c r="D71">
-        <v>0.01043269885920158</v>
+        <v>0.0226848924408839</v>
       </c>
       <c r="E71">
-        <v>-0.02348126985069806</v>
+        <v>0.03027453471409604</v>
       </c>
       <c r="F71">
-        <v>0.02015744869687805</v>
+        <v>-0.01066102248991276</v>
       </c>
       <c r="G71">
-        <v>-0.0007908604265700887</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.06223649490157618</v>
+      </c>
+      <c r="H71">
+        <v>-0.01227089433047524</v>
+      </c>
+      <c r="I71">
+        <v>-0.0398229798659948</v>
+      </c>
+      <c r="J71">
+        <v>0.04454252404577277</v>
+      </c>
+      <c r="K71">
+        <v>-0.1108028954490879</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.006639159657927899</v>
+        <v>0.05289253508233016</v>
       </c>
       <c r="C72">
-        <v>0.1482081764753478</v>
+        <v>-0.1382060950094021</v>
       </c>
       <c r="D72">
-        <v>-0.07658270920712025</v>
+        <v>-0.05018519500025829</v>
       </c>
       <c r="E72">
-        <v>0.009913241545718824</v>
+        <v>-0.06278729054857059</v>
       </c>
       <c r="F72">
-        <v>0.04341520508628288</v>
+        <v>-0.004320495916426793</v>
       </c>
       <c r="G72">
-        <v>-0.1009951050194054</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.00934504009767299</v>
+      </c>
+      <c r="H72">
+        <v>0.0008954184583680499</v>
+      </c>
+      <c r="I72">
+        <v>-0.05499790234432671</v>
+      </c>
+      <c r="J72">
+        <v>0.02152248635476888</v>
+      </c>
+      <c r="K72">
+        <v>0.1109247950757171</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.06690446587039196</v>
+        <v>0.1570672510507565</v>
       </c>
       <c r="C73">
-        <v>0.09917268344297676</v>
+        <v>-0.1964900118757638</v>
       </c>
       <c r="D73">
-        <v>-0.1220983208674602</v>
+        <v>-0.0844180748775773</v>
       </c>
       <c r="E73">
-        <v>0.150078023474239</v>
+        <v>-0.1307845212022122</v>
       </c>
       <c r="F73">
-        <v>-0.2293214151498048</v>
+        <v>-0.01325129600368294</v>
       </c>
       <c r="G73">
-        <v>-0.3224974557581515</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.2217986092230745</v>
+      </c>
+      <c r="H73">
+        <v>0.2942606691045779</v>
+      </c>
+      <c r="I73">
+        <v>0.3630063037284718</v>
+      </c>
+      <c r="J73">
+        <v>-0.08462448644958444</v>
+      </c>
+      <c r="K73">
+        <v>-0.1259031429779792</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.01254285547114542</v>
+        <v>0.03898233524097433</v>
       </c>
       <c r="C74">
-        <v>0.0808410543673659</v>
+        <v>-0.09771610661914305</v>
       </c>
       <c r="D74">
-        <v>-0.07093560789079251</v>
+        <v>-0.0455251052484795</v>
       </c>
       <c r="E74">
-        <v>0.07033389597662136</v>
+        <v>-0.03643342562219172</v>
       </c>
       <c r="F74">
-        <v>-0.04496126478065614</v>
+        <v>-0.02135203423997969</v>
       </c>
       <c r="G74">
-        <v>0.04253161371240755</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.01546568153892752</v>
+      </c>
+      <c r="H74">
+        <v>-0.05084704872927829</v>
+      </c>
+      <c r="I74">
+        <v>-0.01234881355778211</v>
+      </c>
+      <c r="J74">
+        <v>0.03028304166969263</v>
+      </c>
+      <c r="K74">
+        <v>0.01338333100345936</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.03698985996853941</v>
+        <v>0.06372799575261573</v>
       </c>
       <c r="C75">
-        <v>0.1393332322473597</v>
+        <v>-0.1633243800658344</v>
       </c>
       <c r="D75">
-        <v>-0.07562371029209985</v>
+        <v>-0.082852481000237</v>
       </c>
       <c r="E75">
-        <v>0.1629977019264026</v>
+        <v>-0.04935756632389877</v>
       </c>
       <c r="F75">
-        <v>-0.03451319418218297</v>
+        <v>-0.04064291953844947</v>
       </c>
       <c r="G75">
-        <v>0.1755274095099709</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.08928009995263421</v>
+      </c>
+      <c r="H75">
+        <v>-0.2134362288411647</v>
+      </c>
+      <c r="I75">
+        <v>-0.05641901013096393</v>
+      </c>
+      <c r="J75">
+        <v>-0.01954263532546147</v>
+      </c>
+      <c r="K75">
+        <v>-0.1261114551866646</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.01260860674833082</v>
+        <v>0.04581264950687326</v>
       </c>
       <c r="C76">
-        <v>0.1032853143909504</v>
+        <v>-0.1251277084661672</v>
       </c>
       <c r="D76">
-        <v>-0.06197889370439249</v>
+        <v>-0.0744393824032219</v>
       </c>
       <c r="E76">
-        <v>0.09135817745581107</v>
+        <v>-0.03702341609744113</v>
       </c>
       <c r="F76">
-        <v>-0.05610974847961524</v>
+        <v>0.006058611690826446</v>
       </c>
       <c r="G76">
-        <v>0.05280808128485694</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.07548706951218295</v>
+      </c>
+      <c r="H76">
+        <v>-0.07816387666370893</v>
+      </c>
+      <c r="I76">
+        <v>-0.01993117406650473</v>
+      </c>
+      <c r="J76">
+        <v>-0.03386600152566856</v>
+      </c>
+      <c r="K76">
+        <v>0.02606335954770231</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.09256938850439075</v>
+        <v>0.05556372407153926</v>
       </c>
       <c r="C77">
-        <v>0.3791363683145537</v>
+        <v>-0.4026562470858061</v>
       </c>
       <c r="D77">
-        <v>0.835647441005414</v>
+        <v>0.898049563864183</v>
       </c>
       <c r="E77">
-        <v>0.2677221517084984</v>
+        <v>-0.008917150536383806</v>
       </c>
       <c r="F77">
-        <v>-0.132077998206615</v>
+        <v>-0.02916448774055379</v>
       </c>
       <c r="G77">
-        <v>-0.04683840679902021</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.07001451440275661</v>
+      </c>
+      <c r="H77">
+        <v>-0.01983026490528392</v>
+      </c>
+      <c r="I77">
+        <v>-0.08554451527796683</v>
+      </c>
+      <c r="J77">
+        <v>-0.02091522031603536</v>
+      </c>
+      <c r="K77">
+        <v>-0.02402917384367681</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.03141098772252206</v>
+        <v>0.03916849029775891</v>
       </c>
       <c r="C78">
-        <v>0.1230530718689316</v>
+        <v>-0.1133111378866719</v>
       </c>
       <c r="D78">
-        <v>-0.1798359909862056</v>
+        <v>-0.093931871810495</v>
       </c>
       <c r="E78">
-        <v>-0.07835591563257094</v>
+        <v>0.01835065437543158</v>
       </c>
       <c r="F78">
-        <v>-0.1367179846288263</v>
+        <v>0.05091607112847821</v>
       </c>
       <c r="G78">
-        <v>0.1103425289564196</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.009595426782493166</v>
+      </c>
+      <c r="H78">
+        <v>-0.09727526554879454</v>
+      </c>
+      <c r="I78">
+        <v>-0.04879571753767632</v>
+      </c>
+      <c r="J78">
+        <v>0.07972935015152245</v>
+      </c>
+      <c r="K78">
+        <v>0.09056184517481303</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.02163850860516623</v>
+        <v>0.0582903268783865</v>
       </c>
       <c r="C79">
-        <v>0.1593544952616083</v>
+        <v>-0.1411380467373575</v>
       </c>
       <c r="D79">
-        <v>-0.1105075070285214</v>
+        <v>-0.06846926875301317</v>
       </c>
       <c r="E79">
-        <v>0.1301137617383669</v>
+        <v>-0.04786082552856556</v>
       </c>
       <c r="F79">
-        <v>-0.07134251447234442</v>
+        <v>0.01202293536907038</v>
       </c>
       <c r="G79">
-        <v>0.2791023326762689</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>0.04569776681321348</v>
+      </c>
+      <c r="H79">
+        <v>-0.2552070965454516</v>
+      </c>
+      <c r="I79">
+        <v>-0.06448474754508998</v>
+      </c>
+      <c r="J79">
+        <v>0.05253346941541442</v>
+      </c>
+      <c r="K79">
+        <v>-0.05358788385462002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.007697189020150344</v>
+        <v>0.0208613320747747</v>
       </c>
       <c r="C80">
-        <v>0.05193273262714062</v>
+        <v>-0.04378608174639632</v>
       </c>
       <c r="D80">
-        <v>-0.04897871941911953</v>
+        <v>-0.03777397859595284</v>
       </c>
       <c r="E80">
-        <v>-0.03736680830083455</v>
+        <v>0.01928628689549702</v>
       </c>
       <c r="F80">
-        <v>-0.008574228328552851</v>
+        <v>0.05853768850405758</v>
       </c>
       <c r="G80">
-        <v>0.004116386293442248</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.01827600640689426</v>
+      </c>
+      <c r="H80">
+        <v>0.06617551112159938</v>
+      </c>
+      <c r="I80">
+        <v>0.05482077722041224</v>
+      </c>
+      <c r="J80">
+        <v>-0.009107588958531339</v>
+      </c>
+      <c r="K80">
+        <v>-0.03878821363001268</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.002507181177305856</v>
+        <v>0.01711104540727816</v>
       </c>
       <c r="C81">
-        <v>0.07826842175285531</v>
+        <v>-0.09505384858619563</v>
       </c>
       <c r="D81">
-        <v>-0.07178826306453873</v>
+        <v>-0.05672157387405919</v>
       </c>
       <c r="E81">
-        <v>0.08089186424988648</v>
+        <v>-0.02982672920108164</v>
       </c>
       <c r="F81">
-        <v>-0.05167738609700954</v>
+        <v>0.01285902948139995</v>
       </c>
       <c r="G81">
-        <v>0.08160347386469481</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.03226379905197545</v>
+      </c>
+      <c r="H81">
+        <v>-0.101202531796457</v>
+      </c>
+      <c r="I81">
+        <v>-0.06249104277496067</v>
+      </c>
+      <c r="J81">
+        <v>0.05232135035610256</v>
+      </c>
+      <c r="K81">
+        <v>-0.038883156593247</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.01597129526073746</v>
+        <v>0.04712190177357294</v>
       </c>
       <c r="C82">
-        <v>0.07653574008823739</v>
+        <v>-0.105530254047069</v>
       </c>
       <c r="D82">
-        <v>-0.06900115647857845</v>
+        <v>-0.06421457749511579</v>
       </c>
       <c r="E82">
-        <v>0.09659427046443293</v>
+        <v>-0.03279231975306095</v>
       </c>
       <c r="F82">
-        <v>-0.05029573283951706</v>
+        <v>0.01776235189588983</v>
       </c>
       <c r="G82">
-        <v>0.03582734693211798</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>0.0682784024369858</v>
+      </c>
+      <c r="H82">
+        <v>-0.0739521713100509</v>
+      </c>
+      <c r="I82">
+        <v>-0.03585500923288426</v>
+      </c>
+      <c r="J82">
+        <v>-0.01981248994262589</v>
+      </c>
+      <c r="K82">
+        <v>-0.00598430482107727</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.0006178339897070429</v>
+        <v>-1.64904221560727e-05</v>
       </c>
       <c r="C83">
-        <v>0.02636870251171287</v>
+        <v>0.0246291030761219</v>
       </c>
       <c r="D83">
-        <v>0.1258507168789649</v>
+        <v>0.05803546836206579</v>
       </c>
       <c r="E83">
-        <v>-0.6153734817820955</v>
+        <v>-0.2202257901675118</v>
       </c>
       <c r="F83">
-        <v>-0.6534747364873134</v>
+        <v>0.9196539963872827</v>
       </c>
       <c r="G83">
-        <v>0.197523557347217</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.1728040300098765</v>
+      </c>
+      <c r="H83">
+        <v>-0.02066958635071228</v>
+      </c>
+      <c r="I83">
+        <v>0.02917536287689529</v>
+      </c>
+      <c r="J83">
+        <v>-0.1078646686683431</v>
+      </c>
+      <c r="K83">
+        <v>0.05314098841546496</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>0.0124391033538329</v>
+        <v>0.01378470006339753</v>
       </c>
       <c r="C84">
-        <v>0.090823582119925</v>
+        <v>-0.06414150898072558</v>
       </c>
       <c r="D84">
-        <v>-0.03667158576205143</v>
+        <v>-0.08841432985534523</v>
       </c>
       <c r="E84">
-        <v>-0.05553848692135911</v>
+        <v>0.3778576160845885</v>
       </c>
       <c r="F84">
-        <v>0.1455674687602093</v>
+        <v>0.0553920820365842</v>
       </c>
       <c r="G84">
-        <v>0.004369251532364456</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>0.03705225102919423</v>
+      </c>
+      <c r="H84">
+        <v>0.1511441174238513</v>
+      </c>
+      <c r="I84">
+        <v>-0.3773250919070538</v>
+      </c>
+      <c r="J84">
+        <v>-0.7536565856251319</v>
+      </c>
+      <c r="K84">
+        <v>-0.1546924477234441</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>0.0006821306102923956</v>
+        <v>0.03131998303822289</v>
       </c>
       <c r="C85">
-        <v>0.107873848491549</v>
+        <v>-0.1140839337741452</v>
       </c>
       <c r="D85">
-        <v>-0.07685602169059548</v>
+        <v>-0.08177002326721218</v>
       </c>
       <c r="E85">
-        <v>0.1078302141891363</v>
+        <v>-0.06607133017404704</v>
       </c>
       <c r="F85">
-        <v>-0.06302388347866987</v>
+        <v>0.009057671953315104</v>
       </c>
       <c r="G85">
-        <v>0.1916864495156225</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1067038264839419</v>
+      </c>
+      <c r="H85">
+        <v>-0.2245489338315146</v>
+      </c>
+      <c r="I85">
+        <v>-0.04922826630742408</v>
+      </c>
+      <c r="J85">
+        <v>-0.02830218015119331</v>
+      </c>
+      <c r="K85">
+        <v>-0.06664476468529693</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.0197346886521466</v>
+        <v>0.01484429367497146</v>
       </c>
       <c r="C86">
-        <v>0.07705346139955545</v>
+        <v>-0.07711783893443236</v>
       </c>
       <c r="D86">
-        <v>0.006794857222725608</v>
+        <v>-0.03066840298479434</v>
       </c>
       <c r="E86">
-        <v>-0.01183497054818201</v>
+        <v>0.06989517070602803</v>
       </c>
       <c r="F86">
-        <v>0.01300067267275528</v>
+        <v>0.02102874329060924</v>
       </c>
       <c r="G86">
-        <v>-0.0927089786693084</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.05585900220899896</v>
+      </c>
+      <c r="H86">
+        <v>-0.05032587521776022</v>
+      </c>
+      <c r="I86">
+        <v>0.05098115335011796</v>
+      </c>
+      <c r="J86">
+        <v>0.1100243590830246</v>
+      </c>
+      <c r="K86">
+        <v>-0.119271726215298</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.02508262885192609</v>
+        <v>0.02695536872316951</v>
       </c>
       <c r="C87">
-        <v>0.1616290478502367</v>
+        <v>-0.1175973632364486</v>
       </c>
       <c r="D87">
-        <v>-0.03981981816319061</v>
+        <v>-0.0205215072996231</v>
       </c>
       <c r="E87">
-        <v>-0.0838836168433745</v>
+        <v>-0.01284782746274767</v>
       </c>
       <c r="F87">
-        <v>0.05771762092493749</v>
+        <v>-0.003227988434569102</v>
       </c>
       <c r="G87">
-        <v>0.01039424079324101</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.06107488248196597</v>
+      </c>
+      <c r="H87">
+        <v>-0.003533311716758243</v>
+      </c>
+      <c r="I87">
+        <v>-0.04776640630108285</v>
+      </c>
+      <c r="J87">
+        <v>-0.005184764620376228</v>
+      </c>
+      <c r="K87">
+        <v>0.09142322218494661</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.00717350609225948</v>
+        <v>0.03926147914261714</v>
       </c>
       <c r="C88">
-        <v>0.03212193779920511</v>
+        <v>-0.05923219253294627</v>
       </c>
       <c r="D88">
-        <v>-0.03765489160348542</v>
+        <v>-0.03887329995091068</v>
       </c>
       <c r="E88">
-        <v>0.04767390167238245</v>
+        <v>-0.02429464231778172</v>
       </c>
       <c r="F88">
-        <v>-0.008707967106570194</v>
+        <v>-0.01547429897064719</v>
       </c>
       <c r="G88">
-        <v>-0.015088844389471</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.01131237335506499</v>
+      </c>
+      <c r="H88">
+        <v>0.01233280163846048</v>
+      </c>
+      <c r="I88">
+        <v>0.007938790670337457</v>
+      </c>
+      <c r="J88">
+        <v>0.01836824464924706</v>
+      </c>
+      <c r="K88">
+        <v>0.01646058344834897</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.4032245218881312</v>
+        <v>0.3895397610283031</v>
       </c>
       <c r="C89">
-        <v>-0.0698145223355222</v>
+        <v>0.1200764616986204</v>
       </c>
       <c r="D89">
-        <v>-0.07166238732679091</v>
+        <v>0.0386402246227313</v>
       </c>
       <c r="E89">
-        <v>-0.0501644114983466</v>
+        <v>0.02137492597978872</v>
       </c>
       <c r="F89">
-        <v>0.09841091559135993</v>
+        <v>-0.04274129640077989</v>
       </c>
       <c r="G89">
-        <v>0.02562429028764432</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.04781309059604413</v>
+      </c>
+      <c r="H89">
+        <v>0.04739312223288014</v>
+      </c>
+      <c r="I89">
+        <v>-0.04245942846513202</v>
+      </c>
+      <c r="J89">
+        <v>-0.05974485922910883</v>
+      </c>
+      <c r="K89">
+        <v>0.745200708398684</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.3066548762441956</v>
+        <v>0.3161311494553591</v>
       </c>
       <c r="C90">
-        <v>-0.02288810388938676</v>
+        <v>0.07898023792928202</v>
       </c>
       <c r="D90">
-        <v>-0.003362272317649858</v>
+        <v>0.01997524612252407</v>
       </c>
       <c r="E90">
-        <v>-0.07480709092948623</v>
+        <v>0.01303163928208658</v>
       </c>
       <c r="F90">
-        <v>-0.03999886377699285</v>
+        <v>0.008769946224844789</v>
       </c>
       <c r="G90">
-        <v>-0.01630952500917182</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.02858225852030979</v>
+      </c>
+      <c r="H90">
+        <v>0.004095233238166141</v>
+      </c>
+      <c r="I90">
+        <v>-0.01325469297413696</v>
+      </c>
+      <c r="J90">
+        <v>-0.01076539706266376</v>
+      </c>
+      <c r="K90">
+        <v>-0.09758016341111517</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.022737373045672</v>
+        <v>0.05637595856428271</v>
       </c>
       <c r="C91">
-        <v>0.0769781583899715</v>
+        <v>-0.07838977001397222</v>
       </c>
       <c r="D91">
-        <v>-0.06073342934189474</v>
+        <v>-0.05307418229958181</v>
       </c>
       <c r="E91">
-        <v>0.05790076619660801</v>
+        <v>-0.05584046519466817</v>
       </c>
       <c r="F91">
-        <v>-0.05654710456584703</v>
+        <v>0.03334308952561345</v>
       </c>
       <c r="G91">
-        <v>0.07677497809689418</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.03176683796777084</v>
+      </c>
+      <c r="H91">
+        <v>-0.09112543546743536</v>
+      </c>
+      <c r="I91">
+        <v>-0.004777937638257607</v>
+      </c>
+      <c r="J91">
+        <v>-0.01890516183760312</v>
+      </c>
+      <c r="K91">
+        <v>-0.009072710864410116</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.3812318552398136</v>
+        <v>0.3496692339782413</v>
       </c>
       <c r="C92">
-        <v>-0.06674403057512138</v>
+        <v>0.1258483590910205</v>
       </c>
       <c r="D92">
-        <v>0.01995679995501916</v>
+        <v>0.05711605954156698</v>
       </c>
       <c r="E92">
-        <v>0.02376019945616721</v>
+        <v>0.02414026475887977</v>
       </c>
       <c r="F92">
-        <v>0.1212751407583684</v>
+        <v>-0.04474183034247511</v>
       </c>
       <c r="G92">
-        <v>0.002906978622046654</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.0493115126541888</v>
+      </c>
+      <c r="H92">
+        <v>-0.001334603088363235</v>
+      </c>
+      <c r="I92">
+        <v>-0.04735972013038819</v>
+      </c>
+      <c r="J92">
+        <v>0.04948764257265253</v>
+      </c>
+      <c r="K92">
+        <v>-0.1395198645367094</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.3064398620650448</v>
+        <v>0.3068527429444799</v>
       </c>
       <c r="C93">
-        <v>-0.07224548790477554</v>
+        <v>0.1226572664655523</v>
       </c>
       <c r="D93">
-        <v>-0.01164791063236012</v>
+        <v>0.007753926221946572</v>
       </c>
       <c r="E93">
-        <v>-0.06853687474951131</v>
+        <v>0.0435797329216526</v>
       </c>
       <c r="F93">
-        <v>0.04312961562385811</v>
+        <v>0.003584708994879409</v>
       </c>
       <c r="G93">
-        <v>0.007917844507247454</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.03536967352955261</v>
+      </c>
+      <c r="H93">
+        <v>-0.03322655266797785</v>
+      </c>
+      <c r="I93">
+        <v>-0.02232559206907102</v>
+      </c>
+      <c r="J93">
+        <v>0.03174756897270584</v>
+      </c>
+      <c r="K93">
+        <v>-0.1149605001685828</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.03054554349863964</v>
+        <v>0.08342685108130278</v>
       </c>
       <c r="C94">
-        <v>0.1814446182299674</v>
+        <v>-0.1629243978620169</v>
       </c>
       <c r="D94">
-        <v>-0.1351769677663384</v>
+        <v>-0.1125732972400727</v>
       </c>
       <c r="E94">
-        <v>0.195480143275202</v>
+        <v>-0.07622338960288767</v>
       </c>
       <c r="F94">
-        <v>-0.02506457353513186</v>
+        <v>0.02411121651346268</v>
       </c>
       <c r="G94">
-        <v>0.598162269415801</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.1246827012265818</v>
+      </c>
+      <c r="H94">
+        <v>-0.5693302980738176</v>
+      </c>
+      <c r="I94">
+        <v>0.03027433312670557</v>
+      </c>
+      <c r="J94">
+        <v>-0.147735338254293</v>
+      </c>
+      <c r="K94">
+        <v>0.05467925075972851</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.01988706203003945</v>
+        <v>0.04414290299476674</v>
       </c>
       <c r="C95">
-        <v>0.1160227611374628</v>
+        <v>-0.1305228816731938</v>
       </c>
       <c r="D95">
-        <v>-0.04855688131564304</v>
+        <v>-0.06498787180555689</v>
       </c>
       <c r="E95">
-        <v>0.04421540616594198</v>
+        <v>-0.01559703613296319</v>
       </c>
       <c r="F95">
-        <v>-0.0953892989861357</v>
+        <v>-0.02126679551799574</v>
       </c>
       <c r="G95">
-        <v>-0.03629465035430583</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.08251957786385999</v>
+      </c>
+      <c r="H95">
+        <v>0.05813581823526399</v>
+      </c>
+      <c r="I95">
+        <v>-0.07794346599130388</v>
+      </c>
+      <c r="J95">
+        <v>-0.0765517612941172</v>
+      </c>
+      <c r="K95">
+        <v>0.1547241712207844</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4060,127 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>-0.0003867820353900932</v>
+        <v>0.02046433244363392</v>
       </c>
       <c r="C97">
-        <v>0.0006599192635962313</v>
+        <v>-0.02579168412802919</v>
       </c>
       <c r="D97">
-        <v>-0.0006592929255760598</v>
+        <v>0.00841756598249864</v>
       </c>
       <c r="E97">
-        <v>0.003599790093611425</v>
+        <v>0.05014368885679919</v>
       </c>
       <c r="F97">
-        <v>0.000115541024236802</v>
+        <v>-0.005930365980825136</v>
       </c>
       <c r="G97">
-        <v>-0.005769316105151654</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.03521060061595915</v>
+      </c>
+      <c r="H97">
+        <v>0.02743935922646614</v>
+      </c>
+      <c r="I97">
+        <v>0.02802138489740123</v>
+      </c>
+      <c r="J97">
+        <v>0.04521529036985584</v>
+      </c>
+      <c r="K97">
+        <v>0.04845103451685625</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.08602552159449063</v>
+        <v>0.1390114074096751</v>
       </c>
       <c r="C98">
-        <v>0.1417334788032218</v>
+        <v>-0.1609138620055994</v>
       </c>
       <c r="D98">
-        <v>-0.145418621062724</v>
+        <v>-0.09003763427307701</v>
       </c>
       <c r="E98">
-        <v>0.1120745653171188</v>
+        <v>-0.1549676079990671</v>
       </c>
       <c r="F98">
-        <v>-0.1488364738474702</v>
+        <v>0.005730787852395695</v>
       </c>
       <c r="G98">
-        <v>-0.1829852781486694</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.1974495542301961</v>
+      </c>
+      <c r="H98">
+        <v>0.2158691816957388</v>
+      </c>
+      <c r="I98">
+        <v>0.3439107269953384</v>
+      </c>
+      <c r="J98">
+        <v>-0.1211320565855375</v>
+      </c>
+      <c r="K98">
+        <v>-0.1335312268607354</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.03029849130255252</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.060665548054277</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>-0.004945789266153549</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.7555409681117566</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>0.2730021114082559</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>0.4023336942238164</v>
+      </c>
+      <c r="H99">
+        <v>-0.0480649286189523</v>
+      </c>
+      <c r="I99">
+        <v>0.2407536177779803</v>
+      </c>
+      <c r="J99">
+        <v>0.2528046368317388</v>
+      </c>
+      <c r="K99">
+        <v>0.08831746585666964</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4200,92 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.01045666165729103</v>
+        <v>0.01705712643071312</v>
       </c>
       <c r="C101">
-        <v>0.0799383756348151</v>
+        <v>-0.08190469480169242</v>
       </c>
       <c r="D101">
-        <v>-0.04952330509534249</v>
+        <v>-0.04776357494438431</v>
       </c>
       <c r="E101">
-        <v>-0.01899109107776034</v>
+        <v>-0.01750088218606918</v>
       </c>
       <c r="F101">
-        <v>-0.03664150555838724</v>
+        <v>0.04263937447983195</v>
       </c>
       <c r="G101">
-        <v>-0.1148131426674666</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.008195533973130139</v>
+      </c>
+      <c r="H101">
+        <v>0.1908310971794018</v>
+      </c>
+      <c r="I101">
+        <v>-0.2021533545101339</v>
+      </c>
+      <c r="J101">
+        <v>0.1170354295239134</v>
+      </c>
+      <c r="K101">
+        <v>-0.001151465988412855</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>-0.004499513302312868</v>
+        <v>0.002010252594282136</v>
       </c>
       <c r="C102">
-        <v>0.01530690615260528</v>
+        <v>-0.006032837108096586</v>
       </c>
       <c r="D102">
-        <v>0.002662038101564256</v>
+        <v>0.00284252130798951</v>
       </c>
       <c r="E102">
-        <v>0.01781922139869124</v>
+        <v>-0.004051103931799646</v>
       </c>
       <c r="F102">
-        <v>-0.01869381015182374</v>
+        <v>0.0008274846982668614</v>
       </c>
       <c r="G102">
-        <v>0.004977845693074939</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.002734550195382541</v>
+      </c>
+      <c r="H102">
+        <v>-0.001612529177883285</v>
+      </c>
+      <c r="I102">
+        <v>-0.0058198718876781</v>
+      </c>
+      <c r="J102">
+        <v>0.005088173918272818</v>
+      </c>
+      <c r="K102">
+        <v>0.01367959646127583</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
